--- a/SensitivityAnalysisSpreadSheets/WeightCheckTime/WeightCheckTime10 Aircraft 9_1_+10%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/WeightCheckTime/WeightCheckTime10 Aircraft 9_1_+10%.xlsx
@@ -77260,6 +77260,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>13.19366666666667</v>
+      </c>
       <c r="C2" t="n">
         <v>446.2761111111111</v>
       </c>
@@ -77315,6 +77318,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>13.94916666666667</v>
+      </c>
       <c r="C3" t="n">
         <v>444.9733333333334</v>
       </c>
@@ -77370,6 +77376,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>13.51366666666667</v>
+      </c>
       <c r="C4" t="n">
         <v>441.1861111111111</v>
       </c>
@@ -77425,6 +77434,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>13.52083333333333</v>
+      </c>
       <c r="C5" t="n">
         <v>443.8572222222222</v>
       </c>
@@ -77480,6 +77492,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>12.59433333333333</v>
+      </c>
       <c r="C6" t="n">
         <v>457.2344444444444</v>
       </c>
@@ -77535,6 +77550,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>12.15166666666667</v>
+      </c>
       <c r="C7" t="n">
         <v>410.4555555555555</v>
       </c>
@@ -77590,6 +77608,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>13.345</v>
+      </c>
       <c r="C8" t="n">
         <v>447.9072222222223</v>
       </c>
@@ -77645,6 +77666,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>12.65733333333333</v>
+      </c>
       <c r="C9" t="n">
         <v>448.6244444444444</v>
       </c>
@@ -77700,6 +77724,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>12.355</v>
+      </c>
       <c r="C10" t="n">
         <v>418.6872222222222</v>
       </c>
@@ -77755,6 +77782,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>13.00733333333333</v>
+      </c>
       <c r="C11" t="n">
         <v>451.5527777777778</v>
       </c>
@@ -77810,6 +77840,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>13.591</v>
+      </c>
       <c r="C12" t="n">
         <v>456.9061111111112</v>
       </c>
@@ -77865,6 +77898,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>12.26916666666667</v>
+      </c>
       <c r="C13" t="n">
         <v>419.7566666666667</v>
       </c>
@@ -77920,6 +77956,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>13.70816666666667</v>
+      </c>
       <c r="C14" t="n">
         <v>442.676111111111</v>
       </c>
@@ -77975,6 +78014,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>11.9475</v>
+      </c>
       <c r="C15" t="n">
         <v>435.4438888888889</v>
       </c>
@@ -78030,6 +78072,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>13.22183333333333</v>
+      </c>
       <c r="C16" t="n">
         <v>427.0105555555555</v>
       </c>
@@ -78085,6 +78130,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>12.81033333333333</v>
+      </c>
       <c r="C17" t="n">
         <v>435.2477777777778</v>
       </c>
@@ -78140,6 +78188,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>12.9545</v>
+      </c>
       <c r="C18" t="n">
         <v>438.395</v>
       </c>
@@ -78195,6 +78246,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>13.7565</v>
+      </c>
       <c r="C19" t="n">
         <v>462.3988888888888</v>
       </c>
@@ -78250,6 +78304,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>13.26066666666667</v>
+      </c>
       <c r="C20" t="n">
         <v>437.3272222222222</v>
       </c>
@@ -78305,6 +78362,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>12.3565</v>
+      </c>
       <c r="C21" t="n">
         <v>432.4644444444444</v>
       </c>
@@ -78360,6 +78420,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>13.675</v>
+      </c>
       <c r="C22" t="n">
         <v>429.0733333333333</v>
       </c>
@@ -78415,6 +78478,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>14.63783333333333</v>
+      </c>
       <c r="C23" t="n">
         <v>451.575</v>
       </c>
@@ -78470,6 +78536,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>12.94716666666667</v>
+      </c>
       <c r="C24" t="n">
         <v>456.3055555555555</v>
       </c>
@@ -78525,6 +78594,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>13.04116666666667</v>
+      </c>
       <c r="C25" t="n">
         <v>446.7605555555555</v>
       </c>
@@ -78580,6 +78652,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>14.1865</v>
+      </c>
       <c r="C26" t="n">
         <v>454.0816666666667</v>
       </c>
@@ -78635,6 +78710,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>12.9325</v>
+      </c>
       <c r="C27" t="n">
         <v>433.0861111111112</v>
       </c>
@@ -78690,6 +78768,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>12.33133333333333</v>
+      </c>
       <c r="C28" t="n">
         <v>406.5244444444444</v>
       </c>
@@ -78745,6 +78826,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>13.83866666666667</v>
+      </c>
       <c r="C29" t="n">
         <v>443.0844444444445</v>
       </c>
@@ -78800,6 +78884,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>12.899</v>
+      </c>
       <c r="C30" t="n">
         <v>416.2711111111111</v>
       </c>
@@ -78854,6 +78941,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>13.37016666666667</v>
       </c>
       <c r="C31" t="n">
         <v>453.7155555555556</v>
